--- a/reviews.xlsx
+++ b/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,396 +770,6 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>POSITIVE</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0.9958456158638</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9.234374738298357e-05</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.004046452697366476</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.560861892357934e-05</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>"James was very helpful and thorough in the purchase, assembly, and acquisition of my wife\u2019s bicycle and related accessories."</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>POSITIVE</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.9929100871086121</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.0001299439900321886</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.006932310294359922</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.760429197223857e-05</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>"James was a great help."</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>POSITIVE</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0.9988619089126587</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.418439003638923e-05</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.001018389710225165</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.546967334637884e-05</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>"Katy and James are fantastic to work with! They took time to listen to my needs and worked with me to find the perfect bike! Can't say enough good things about them!"</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>POSITIVE</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0.8825779557228088</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.006578024011105299</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.1107345148921013</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.0001094343751901761</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>"James got a Trek bike that fit me, when they were in short supply. Awesome."</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>POSITIVE</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0.9895113110542297</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0007229687180370092</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.009520779363811016</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.000244867114815861</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>"Great service. James handled everything fine."</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>POSITIVE</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0.9989939332008362</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3.964989809901454e-05</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0008361406507901847</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.000130321437609382</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>"Product: I have always liked Trek brand.... Service: Your team, (James) was amazing to work with. Very helpful, very responsive and knowledgeable. Also, he did not have the arrogant, bike-shop attitude. Thank you !"</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>POSITIVE</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0.999624490737915</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5.660890019498765e-05</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.000294425553875044</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.443101038807072e-05</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>"Service was excellent. I came in asking about trainers and James was super helpful at explaining all the options. When I came back a few weeks later to make the purchase he helped assemble my trainer and walked me through how to change my tire back and forth from trainer tire to road tire. He was knowledgeable and really took a lot of time to help!"</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>POSITIVE</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9987142086029053</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.0001228106702910736</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.00101574941072613</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0001472406001994386</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>"James is a super salesman. I was very satisfied with service I received. My bike was set up to perfection. I bought 2 helmets, bike rack, kickstand and cateye computer. Didn't think til I had left that I wish he had given me the box and instruction manual to the computer. [NAME REMOVED]"</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>POSITIVE</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0.6628549695014954</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.260576456785202</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.07429790496826172</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.002270654775202274</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>"I didn\u2019t like the bike I ordered and there was a used bike that seemed like a good deal so it all worked out. James was very helpful throughout the whole process. I\u2019ve already recommended your shop to someone that spends time in Louisville so maybe that will pan out. Regards, Donn [LAST NAME REMOVED]"</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>POSITIVE</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0.6576880216598511</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.009245187975466251</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.3328720331192017</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.000194749649381265</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>"James had tremendous patience. I visited multi times trying to identify the right equipment for me."</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>POSITIVE</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0.9481348395347595</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.0003878893912769854</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0514150857925415</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6.213621236383915e-05</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>"James, was very helpful."</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>POSITIVE</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0.9866229891777039</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.0001787610090104863</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.01313063129782677</v>
-      </c>
-      <c r="G23" t="n">
-        <v>6.756861694157124e-05</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>"James was very knowledgeable and a huge help during the bike shopping process."</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>POSITIVE</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0.9992353916168213</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.0001109506192733534</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.0006214317982085049</v>
-      </c>
-      <c r="G24" t="n">
-        <v>3.225956970709376e-05</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>"James is great! Understood what I was looking for and led me directly to a bike I think I'm gonna love!!! (just bought yesterday and took it for a quick spin...but too cold to go out long!!!!)"</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
